--- a/data/trans_media/MCS12_SP-Habitat-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,36; 55,41</t>
+          <t>53,39; 55,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,99; 52,58</t>
+          <t>49,9; 52,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,49; 53,64</t>
+          <t>50,36; 53,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,28; 54,42</t>
+          <t>51,39; 54,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,25; 54,98</t>
+          <t>51,94; 54,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,15; 50,88</t>
+          <t>46,94; 50,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,81; 51,79</t>
+          <t>47,84; 51,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,9; 53,26</t>
+          <t>50,9; 53,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,23; 54,88</t>
+          <t>53,12; 54,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,07; 51,45</t>
+          <t>49,13; 51,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,83; 52,25</t>
+          <t>49,68; 52,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 53,35</t>
+          <t>51,64; 53,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,42; 53,46</t>
+          <t>52,33; 53,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 53,08</t>
+          <t>51,85; 53,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,58; 52,89</t>
+          <t>51,57; 52,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 53,37</t>
+          <t>51,9; 53,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,02; 52,18</t>
+          <t>50,96; 52,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,73; 49,49</t>
+          <t>47,71; 49,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,57; 51,19</t>
+          <t>49,61; 51,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,55; 51,82</t>
+          <t>50,59; 51,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,89; 52,69</t>
+          <t>51,9; 52,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,96; 51,09</t>
+          <t>50,01; 51,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,87; 51,87</t>
+          <t>50,86; 51,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,42; 52,4</t>
+          <t>51,46; 52,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,92; 52,86</t>
+          <t>51,91; 52,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,36; 52,43</t>
+          <t>51,34; 52,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,46; 53,35</t>
+          <t>52,49; 53,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,48; 53,55</t>
+          <t>52,49; 53,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,16</t>
+          <t>50,05; 51,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,65; 50,01</t>
+          <t>48,73; 50,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,47</t>
+          <t>50,2; 51,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,21; 51,27</t>
+          <t>50,18; 51,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,84</t>
+          <t>51,16; 51,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,08</t>
+          <t>50,2; 51,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,23</t>
+          <t>51,52; 52,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>51,48; 52,25</t>
+          <t>51,48; 52,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,11; 53,21</t>
+          <t>52,09; 53,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,99; 53,18</t>
+          <t>52,0; 53,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,44</t>
+          <t>52,25; 53,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,42; 52,93</t>
+          <t>51,37; 52,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,78; 51,16</t>
+          <t>49,72; 51,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,24; 50,68</t>
+          <t>49,16; 50,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,34; 51,75</t>
+          <t>50,28; 51,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,25; 50,97</t>
+          <t>47,93; 50,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 51,96</t>
+          <t>51,09; 51,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,84; 51,79</t>
+          <t>50,81; 51,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,53; 52,4</t>
+          <t>51,52; 52,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,45; 51,66</t>
+          <t>49,25; 51,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,64; 52,62</t>
+          <t>51,6; 52,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,03</t>
+          <t>50,97; 52,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,05; 52,21</t>
+          <t>51,13; 52,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51,88; 52,86</t>
+          <t>51,78; 52,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,73; 50,83</t>
+          <t>49,68; 50,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,23; 49,41</t>
+          <t>48,2; 49,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,55; 50,76</t>
+          <t>49,48; 50,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,49; 50,54</t>
+          <t>49,47; 50,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,8; 51,57</t>
+          <t>50,79; 51,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,5</t>
+          <t>49,73; 50,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,27</t>
+          <t>50,5; 51,26</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,7; 51,52</t>
+          <t>50,72; 51,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,32; 52,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,3</t>
+          <t>51,72; 52,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,7</t>
+          <t>52,18; 52,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,28; 52,92</t>
+          <t>52,29; 52,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,86; 49,56</t>
+          <t>48,85; 49,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,27; 50,95</t>
+          <t>50,26; 50,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,88; 50,84</t>
+          <t>49,93; 50,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,43; 51,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,39; 50,83</t>
+          <t>50,36; 50,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,71</t>
+          <t>51,3; 51,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,72</t>
+          <t>51,1; 51,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/MCS12_SP-Habitat-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,32</t>
+          <t>53,27; 55,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,9; 52,56</t>
+          <t>50,04; 52,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,36; 53,55</t>
+          <t>50,11; 53,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,94; 54,82</t>
+          <t>52,08; 54,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,94; 50,86</t>
+          <t>47,16; 50,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,84; 51,57</t>
+          <t>47,68; 51,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,12; 54,9</t>
+          <t>53,1; 54,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,13; 51,35</t>
+          <t>49,1; 51,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,68; 52,14</t>
+          <t>49,6; 52,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,46</t>
+          <t>52,4; 53,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,85; 53,07</t>
+          <t>51,81; 53,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,96; 52,2</t>
+          <t>51,01; 52,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,71; 49,49</t>
+          <t>47,6; 49,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,61; 51,25</t>
+          <t>49,61; 51,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,9; 52,68</t>
+          <t>51,83; 52,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,01; 51,11</t>
+          <t>49,97; 51,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,86; 51,94</t>
+          <t>50,81; 51,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,91; 52,84</t>
+          <t>51,91; 52,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,34; 52,41</t>
+          <t>51,35; 52,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,49; 53,31</t>
+          <t>52,46; 53,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,05; 51,16</t>
+          <t>50,0; 51,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,73; 50,03</t>
+          <t>48,79; 50,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,2; 51,4</t>
+          <t>50,26; 51,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,16; 51,91</t>
+          <t>51,12; 51,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,2; 51,08</t>
+          <t>50,25; 51,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,52; 52,23</t>
+          <t>51,44; 52,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,09; 53,25</t>
+          <t>52,09; 53,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,0; 53,23</t>
+          <t>51,95; 53,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,25; 53,44</t>
+          <t>52,25; 53,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,72; 51,13</t>
+          <t>49,78; 51,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,16; 50,64</t>
+          <t>49,17; 50,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,28; 51,69</t>
+          <t>50,28; 51,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,09; 51,97</t>
+          <t>51,08; 52,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 51,71</t>
+          <t>50,75; 51,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,52; 52,44</t>
+          <t>51,44; 52,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,6; 52,57</t>
+          <t>51,65; 52,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,97; 52,04</t>
+          <t>50,93; 52,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,13; 52,24</t>
+          <t>51,15; 52,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,68; 50,83</t>
+          <t>49,71; 50,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,2; 49,48</t>
+          <t>48,23; 49,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,48; 50,76</t>
+          <t>49,58; 50,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,79; 51,58</t>
+          <t>50,81; 51,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>49,73; 50,51</t>
+          <t>49,69; 50,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,5; 51,26</t>
+          <t>50,49; 51,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,32; 52,8</t>
+          <t>52,32; 52,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,72; 52,3</t>
+          <t>51,76; 52,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,18; 52,71</t>
+          <t>52,18; 52,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,47; 51,05</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,85; 49,57</t>
+          <t>48,9; 49,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,26; 50,93</t>
+          <t>50,28; 50,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,43; 51,83</t>
+          <t>51,46; 51,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,36; 50,83</t>
+          <t>50,38; 50,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,3; 51,71</t>
+          <t>51,29; 51,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
